--- a/model-inference/decisionTree/experiments/results/results.xlsx
+++ b/model-inference/decisionTree/experiments/results/results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08782925-F6AE-4436-AE0C-EBBB533AB96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E3E258-B0AF-46CA-BEA8-C79187C1D212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="RandomForest" sheetId="1" r:id="rId1"/>
+    <sheet name="XGBoost" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="24">
   <si>
     <t>randomforest</t>
   </si>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -292,25 +292,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="7"/>
-    <cellStyle name="Accent 1" xfId="8"/>
-    <cellStyle name="Accent 2" xfId="9"/>
-    <cellStyle name="Accent 3" xfId="10"/>
+    <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11"/>
-    <cellStyle name="Footnote" xfId="12"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="14"/>
+    <cellStyle name="Hyperlink" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,7 +411,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$46</c:f>
+              <c:f>RandomForest!$K$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -490,7 +490,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$47:$J$50</c:f>
+              <c:f>RandomForest!$J$47:$J$50</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -510,7 +510,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$47:$K$50</c:f>
+              <c:f>RandomForest!$K$47:$K$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -540,7 +540,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$46</c:f>
+              <c:f>RandomForest!$L$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -619,7 +619,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$47:$J$50</c:f>
+              <c:f>RandomForest!$J$47:$J$50</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -639,7 +639,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$47:$L$50</c:f>
+              <c:f>RandomForest!$L$47:$L$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -669,7 +669,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$46</c:f>
+              <c:f>RandomForest!$M$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -748,7 +748,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$47:$J$50</c:f>
+              <c:f>RandomForest!$J$47:$J$50</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -768,7 +768,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$47:$M$50</c:f>
+              <c:f>RandomForest!$M$47:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1099,6 +1099,775 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>XGBoost Total Time 500 trees 8 depth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>XGBoost!$I$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>XGBoost!$H$71:$H$74</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HumminbirdTorchCPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HummingbirdTorchScriptCPU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ONNXCPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>XGBoost!$I$71:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>136573.39000701901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78153.047084808393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82835.233211517305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45775.402545928999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D38-4609-B242-442528F50EA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>XGBoost!$J$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>XGBoost!$H$71:$H$74</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HumminbirdTorchCPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HummingbirdTorchScriptCPU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ONNXCPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>XGBoost!$J$71:$J$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21653.745412826502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163559.726953506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141051.24235153201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28144.618272781401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D38-4609-B242-442528F50EA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>XGBoost!$K$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>XGBoost!$H$71:$H$74</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HumminbirdTorchCPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HummingbirdTorchScriptCPU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ONNXCPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>XGBoost!$K$71:$K$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20137.602329254099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191806.066989899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>605028.63812446594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27451.575040817301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D38-4609-B242-442528F50EA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1804293040"/>
+        <c:axId val="1804292624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1804293040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Library</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804292624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1804292624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Taken (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804293040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1180,7 +1949,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$2</c:f>
+              <c:f>RandomForest!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1259,7 +2028,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$3:$J$6</c:f>
+              <c:f>RandomForest!$J$3:$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1279,7 +2048,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$6</c:f>
+              <c:f>RandomForest!$K$3:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1309,7 +2078,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>RandomForest!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1388,7 +2157,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$3:$J$6</c:f>
+              <c:f>RandomForest!$J$3:$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1408,7 +2177,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$6</c:f>
+              <c:f>RandomForest!$L$3:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1438,7 +2207,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>RandomForest!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1517,7 +2286,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$3:$J$6</c:f>
+              <c:f>RandomForest!$J$3:$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1537,7 +2306,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$6</c:f>
+              <c:f>RandomForest!$M$3:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1954,7 +2723,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$24</c:f>
+              <c:f>RandomForest!$K$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2033,7 +2802,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$25:$J$28</c:f>
+              <c:f>RandomForest!$J$25:$J$28</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2053,7 +2822,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$25:$K$28</c:f>
+              <c:f>RandomForest!$K$25:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2083,7 +2852,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$24</c:f>
+              <c:f>RandomForest!$L$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2162,7 +2931,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$25:$J$28</c:f>
+              <c:f>RandomForest!$J$25:$J$28</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2182,7 +2951,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$25:$L$28</c:f>
+              <c:f>RandomForest!$L$25:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2212,7 +2981,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$24</c:f>
+              <c:f>RandomForest!$M$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2291,7 +3060,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$25:$J$28</c:f>
+              <c:f>RandomForest!$J$25:$J$28</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2311,7 +3080,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$25:$M$28</c:f>
+              <c:f>RandomForest!$M$25:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2728,7 +3497,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$69</c:f>
+              <c:f>RandomForest!$K$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2807,7 +3576,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$70:$J$73</c:f>
+              <c:f>RandomForest!$J$70:$J$73</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2827,7 +3596,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$70:$K$73</c:f>
+              <c:f>RandomForest!$K$70:$K$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2857,7 +3626,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$69</c:f>
+              <c:f>RandomForest!$L$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2936,7 +3705,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$70:$J$73</c:f>
+              <c:f>RandomForest!$J$70:$J$73</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2956,7 +3725,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$70:$L$73</c:f>
+              <c:f>RandomForest!$L$70:$L$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2986,7 +3755,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$69</c:f>
+              <c:f>RandomForest!$M$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3065,7 +3834,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$70:$J$73</c:f>
+              <c:f>RandomForest!$J$70:$J$73</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3085,7 +3854,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$70:$M$73</c:f>
+              <c:f>RandomForest!$M$70:$M$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3451,7 +4220,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>XGBoost Prediction 10 trees 8 depth</a:t>
+              <a:t>Conversion Time 10 trees 8 depth</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3497,7 +4266,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$2</c:f>
+              <c:f>RandomForest!$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3576,48 +4345,42 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$3:$H$6</c:f>
+              <c:f>RandomForest!$Q$5:$Q$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Sklearn</c:v>
+                  <c:v>HumminbirdTorchCPU</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HumminbirdTorchCPU</c:v>
+                  <c:v>ONNXCPU</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>HummingbirdTorchScriptCPU</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ONNXCPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$3:$I$6</c:f>
+              <c:f>RandomForest!$R$5:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>101459.13028717</c:v>
+                  <c:v>191.073179244995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18906.903266906698</c:v>
+                  <c:v>249.435186386108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13349.5345115662</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4898.1800079345703</c:v>
+                  <c:v>181.19502067565901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB6C-42E2-A7D0-F15CD3C7BFBD}"/>
+              <c16:uniqueId val="{00000000-62EA-40EE-9822-BE3CA5112967}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3626,7 +4389,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$2</c:f>
+              <c:f>RandomForest!$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3705,48 +4468,36 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$3:$H$6</c:f>
+              <c:f>RandomForest!$Q$5:$Q$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Sklearn</c:v>
+                  <c:v>HumminbirdTorchCPU</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HumminbirdTorchCPU</c:v>
+                  <c:v>ONNXCPU</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>HummingbirdTorchScriptCPU</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ONNXCPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$3:$J$6</c:f>
+              <c:f>RandomForest!$S$5:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1871.8445301055899</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1947.7601051330601</c:v>
-                </c:pt>
+                <c:ptCount val="3"/>
                 <c:pt idx="2">
-                  <c:v>2058.7294101715102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1590.9845829010001</c:v>
+                  <c:v>251.01208686828599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FB6C-42E2-A7D0-F15CD3C7BFBD}"/>
+              <c16:uniqueId val="{00000001-62EA-40EE-9822-BE3CA5112967}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3755,7 +4506,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$2</c:f>
+              <c:f>RandomForest!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3834,27 +4585,1528 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$3:$H$6</c:f>
+              <c:f>RandomForest!$Q$5:$Q$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Sklearn</c:v>
+                  <c:v>HumminbirdTorchCPU</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>HumminbirdTorchCPU</c:v>
+                  <c:v>ONNXCPU</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>HummingbirdTorchScriptCPU</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ONNXCPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$3:$K$6</c:f>
+              <c:f>RandomForest!$T$5:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>10938.5261535645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-62EA-40EE-9822-BE3CA5112967}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="352701583"/>
+        <c:axId val="352686191"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="352701583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Library</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352686191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="352686191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time taken to convert (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352701583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Conversion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time 500 trees 8 depth</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RandomForest!$R$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RandomForest!$Q$47:$Q$49</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>HumminbirdTorchCPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONNXCPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HummingbirdTorchScriptCPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RandomForest!$R$47:$R$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3840.3789997100798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7251.2507438659704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3477.6661396026602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7243-4242-9C6B-A83F5D1B8C4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RandomForest!$S$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RandomForest!$Q$47:$Q$49</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>HumminbirdTorchCPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONNXCPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HummingbirdTorchScriptCPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RandomForest!$S$47:$S$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>7578.59325408936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7243-4242-9C6B-A83F5D1B8C4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RandomForest!$T$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RandomForest!$Q$47:$Q$49</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>HumminbirdTorchCPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ONNXCPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HummingbirdTorchScriptCPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RandomForest!$T$47:$T$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>444874.01199340803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7243-4242-9C6B-A83F5D1B8C4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="354696095"/>
+        <c:axId val="354696511"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="354696095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Library</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354696511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="354696511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Taken (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354696095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>XGBoost Prediction 10 trees 8 depth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>XGBoost!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>XGBoost!$H$3:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HumminbirdTorchCPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HummingbirdTorchScriptCPU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ONNXCPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>XGBoost!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>101459.13028717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18906.903266906698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13349.5345115662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4898.1800079345703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB6C-42E2-A7D0-F15CD3C7BFBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>XGBoost!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>XGBoost!$H$3:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HumminbirdTorchCPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HummingbirdTorchScriptCPU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ONNXCPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>XGBoost!$J$3:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1871.8445301055899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1947.7601051330601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2058.7294101715102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1590.9845829010001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB6C-42E2-A7D0-F15CD3C7BFBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>XGBoost!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>XGBoost!$H$3:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HumminbirdTorchCPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HummingbirdTorchScriptCPU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ONNXCPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>XGBoost!$K$3:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4190,7 +6442,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4276,7 +6528,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$24</c:f>
+              <c:f>XGBoost!$I$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4355,7 +6607,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$25:$H$28</c:f>
+              <c:f>XGBoost!$H$25:$H$28</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4375,7 +6627,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$25:$I$28</c:f>
+              <c:f>XGBoost!$I$25:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4405,7 +6657,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$24</c:f>
+              <c:f>XGBoost!$J$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4484,7 +6736,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$25:$H$28</c:f>
+              <c:f>XGBoost!$H$25:$H$28</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4504,7 +6756,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$25:$J$28</c:f>
+              <c:f>XGBoost!$J$25:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4534,7 +6786,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$24</c:f>
+              <c:f>XGBoost!$K$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4613,7 +6865,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$25:$H$28</c:f>
+              <c:f>XGBoost!$H$25:$H$28</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4633,7 +6885,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$25:$K$28</c:f>
+              <c:f>XGBoost!$K$25:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4969,7 +7221,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5055,7 +7307,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$47</c:f>
+              <c:f>XGBoost!$I$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5134,7 +7386,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$48:$H$51</c:f>
+              <c:f>XGBoost!$H$48:$H$51</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5154,7 +7406,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$48:$I$51</c:f>
+              <c:f>XGBoost!$I$48:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5184,7 +7436,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$47</c:f>
+              <c:f>XGBoost!$J$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5263,7 +7515,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$48:$H$51</c:f>
+              <c:f>XGBoost!$H$48:$H$51</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5283,7 +7535,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$48:$J$51</c:f>
+              <c:f>XGBoost!$J$48:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5313,7 +7565,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$47</c:f>
+              <c:f>XGBoost!$K$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5392,7 +7644,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$48:$H$51</c:f>
+              <c:f>XGBoost!$H$48:$H$51</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5412,7 +7664,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$48:$K$51</c:f>
+              <c:f>XGBoost!$K$48:$K$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5743,776 +7995,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>XGBoost Total Time 500 trees 8 depth</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$I$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$H$71:$H$74</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sklearn</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HumminbirdTorchCPU</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>HummingbirdTorchScriptCPU</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ONNXCPU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$I$71:$I$74</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>136573.39000701901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78153.047084808393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>82835.233211517305</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45775.402545928999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D38-4609-B242-442528F50EA6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$J$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$H$71:$H$74</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sklearn</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HumminbirdTorchCPU</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>HummingbirdTorchScriptCPU</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ONNXCPU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$J$71:$J$74</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>21653.745412826502</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>163559.726953506</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>141051.24235153201</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28144.618272781401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7D38-4609-B242-442528F50EA6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$K$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$H$71:$H$74</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Sklearn</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HumminbirdTorchCPU</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>HummingbirdTorchScriptCPU</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ONNXCPU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$K$71:$K$74</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>20137.602329254099</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>191806.066989899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>605028.63812446594</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27451.575040817301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7D38-4609-B242-442528F50EA6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1804293040"/>
-        <c:axId val="1804292624"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1804293040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Library</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1804292624"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1804292624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time Taken (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1804293040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6832,6 +8355,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -7337,7 +8900,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7842,7 +9405,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8347,7 +9910,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8852,7 +10415,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9357,7 +10920,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9862,7 +11425,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10367,7 +11930,1017 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11013,6 +13586,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C0934F-23E7-0CD2-6FAF-C82240023EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2C01B6-D2FD-D539-576C-94DAC7CDCE30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11466,11 +14111,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11482,9 +14127,10 @@
     <col min="8" max="8" width="19.3984375" customWidth="1"/>
     <col min="9" max="9" width="10.69921875" customWidth="1"/>
     <col min="10" max="10" width="25.09765625" customWidth="1"/>
+    <col min="17" max="17" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11500,7 +14146,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11523,7 +14169,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11549,7 +14195,7 @@
         <v>2541.68701171875</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:20">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -11568,8 +14214,17 @@
       <c r="M4">
         <v>4193.8238143920898</v>
       </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>10000</v>
+      </c>
+      <c r="T4">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -11588,8 +14243,14 @@
       <c r="M5">
         <v>3631.9601535797101</v>
       </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5">
+        <v>191.073179244995</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -11611,8 +14272,14 @@
       <c r="M6">
         <v>1851.9320487976099</v>
       </c>
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6">
+        <v>249.435186386108</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -11622,13 +14289,25 @@
       <c r="C7">
         <v>4.7287940979003897</v>
       </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7">
+        <v>181.19502067565901</v>
+      </c>
+      <c r="S7">
+        <v>251.01208686828599</v>
+      </c>
+      <c r="T7">
+        <v>10938.5261535645</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -11636,7 +14315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -11644,7 +14323,7 @@
         <v>6370.7916736602801</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:20">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -11664,7 +14343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -11687,7 +14366,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -11710,7 +14389,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -11733,7 +14412,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -11981,7 +14660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -12004,7 +14683,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -12027,7 +14706,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -12050,7 +14729,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -12073,7 +14752,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -12084,7 +14763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -12098,7 +14777,7 @@
         <v>8800000</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -12112,7 +14791,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:20">
       <c r="B43" t="s">
         <v>6</v>
       </c>
@@ -12120,7 +14799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -12128,7 +14807,7 @@
         <v>289.74318504333502</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -12139,7 +14818,7 @@
         <v>26.118040084838899</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -12158,8 +14837,17 @@
       <c r="M46">
         <v>1000000</v>
       </c>
+      <c r="R46">
+        <v>100</v>
+      </c>
+      <c r="S46">
+        <v>10000</v>
+      </c>
+      <c r="T46">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:20">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -12175,8 +14863,14 @@
       <c r="M47">
         <v>40161.787271499597</v>
       </c>
+      <c r="Q47" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47">
+        <v>3840.3789997100798</v>
+      </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -12195,8 +14889,14 @@
       <c r="M48">
         <v>193318.262815475</v>
       </c>
+      <c r="Q48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R48">
+        <v>7251.2507438659704</v>
+      </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -12215,8 +14915,20 @@
       <c r="M49">
         <v>142404.34074401899</v>
       </c>
+      <c r="Q49" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49">
+        <v>3477.6661396026602</v>
+      </c>
+      <c r="S49">
+        <v>7578.59325408936</v>
+      </c>
+      <c r="T49">
+        <v>444874.01199340803</v>
+      </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:20">
       <c r="J50" t="s">
         <v>22</v>
       </c>
@@ -12230,7 +14942,7 @@
         <v>33232.1290969849</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:20">
       <c r="B51" t="s">
         <v>14</v>
       </c>
@@ -12250,7 +14962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -12273,7 +14985,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -12296,7 +15008,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -12319,7 +15031,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -12342,7 +15054,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -12350,7 +15062,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -12358,7 +15070,7 @@
         <v>6237.3268604278601</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:20">
       <c r="B61" t="s">
         <v>14</v>
       </c>
@@ -12378,7 +15090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -12401,7 +15113,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -12424,7 +15136,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -12672,11 +15384,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
